--- a/data/public_toilet/data.xlsx
+++ b/data/public_toilet/data.xlsx
@@ -1165,10 +1165,10 @@
         <v>2</v>
       </c>
       <c r="S8" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U8" t="str">
         <v>1</v>
@@ -2225,10 +2225,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>34.42404</v>
+        <v>34.42198</v>
       </c>
       <c r="C19" t="str">
-        <v>134.05224</v>
+        <v>134.05454</v>
       </c>
       <c r="D19" t="str">
         <v>37201</v>
@@ -2326,10 +2326,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>34.41915</v>
+        <v>34.41954</v>
       </c>
       <c r="C20" t="str">
-        <v>134.06137</v>
+        <v>134.05733</v>
       </c>
       <c r="D20" t="str">
         <v>37201</v>
@@ -2629,10 +2629,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>34.39167</v>
+        <v>34.3913081</v>
       </c>
       <c r="C23" t="str">
-        <v>134.15497</v>
+        <v>134.1528927</v>
       </c>
       <c r="D23" t="str">
         <v>37201</v>
@@ -12646,7 +12646,7 @@
         <v>高松市</v>
       </c>
       <c r="H122" t="str">
-        <v>牟礼原ｸﾘｰﾝﾊｲﾂ西公園</v>
+        <v>牟礼原クリーンハイツ西公園</v>
       </c>
       <c r="I122" t="str">
         <v>ムレハラクリーンハイツニシコウエン</v>

--- a/data/public_toilet/data.xlsx
+++ b/data/public_toilet/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG168"/>
+  <dimension ref="A1:AG170"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6568,10 +6568,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="str">
-        <v>34.34856333</v>
+        <v>34.34861647765662</v>
       </c>
       <c r="C62" t="str">
-        <v>134.08787167</v>
+        <v>134.08830082343889</v>
       </c>
       <c r="D62" t="str">
         <v>37201</v>
@@ -6628,16 +6628,16 @@
         <v>1</v>
       </c>
       <c r="V62" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="W62" t="str">
         <v/>
       </c>
       <c r="X62" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Y62" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
       <c r="Z62" t="str">
         <v>無</v>
@@ -10365,16 +10365,16 @@
         <v>1</v>
       </c>
       <c r="V99" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="W99" t="str">
         <v/>
       </c>
       <c r="X99" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Y99" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
       <c r="Z99" t="str">
         <v>無</v>
@@ -10971,16 +10971,16 @@
         <v>1</v>
       </c>
       <c r="V105" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="W105" t="str">
         <v/>
       </c>
       <c r="X105" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Y105" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
       <c r="Z105" t="str">
         <v>無</v>
@@ -17370,9 +17370,127 @@
         <v/>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>168</v>
+      </c>
+      <c r="B169" t="str">
+        <v>34.37388427638902</v>
+      </c>
+      <c r="C169" t="str">
+        <v>133.94298405163897</v>
+      </c>
+      <c r="D169" t="str">
+        <v>37201</v>
+      </c>
+      <c r="E169" t="str">
+        <v>168</v>
+      </c>
+      <c r="F169" t="str">
+        <v>香川県</v>
+      </c>
+      <c r="G169" t="str">
+        <v>高松市</v>
+      </c>
+      <c r="H169" t="str">
+        <v>亀水中央公園</v>
+      </c>
+      <c r="I169" t="str">
+        <v>タルミチュウオウコウエン</v>
+      </c>
+      <c r="K169" t="str">
+        <v>高松市亀水町458-3</v>
+      </c>
+      <c r="N169" t="str">
+        <v>3</v>
+      </c>
+      <c r="O169" t="str">
+        <v>2</v>
+      </c>
+      <c r="P169" t="str">
+        <v/>
+      </c>
+      <c r="Q169" t="str">
+        <v>1</v>
+      </c>
+      <c r="R169" t="str">
+        <v>2</v>
+      </c>
+      <c r="S169" t="str">
+        <v/>
+      </c>
+      <c r="T169" t="str">
+        <v>2</v>
+      </c>
+      <c r="X169" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y169" t="str">
+        <v>有</v>
+      </c>
+      <c r="Z169" t="str">
+        <v>有</v>
+      </c>
+      <c r="AA169" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>169</v>
+      </c>
+      <c r="B170" t="str">
+        <v>34.300704198532245</v>
+      </c>
+      <c r="C170" t="str">
+        <v>133.99379437763025</v>
+      </c>
+      <c r="D170" t="str">
+        <v>37201</v>
+      </c>
+      <c r="E170" t="str">
+        <v>169</v>
+      </c>
+      <c r="F170" t="str">
+        <v>香川県</v>
+      </c>
+      <c r="G170" t="str">
+        <v>高松市</v>
+      </c>
+      <c r="H170" t="str">
+        <v>まゆみ公園</v>
+      </c>
+      <c r="I170" t="str">
+        <v>マユミコウエン</v>
+      </c>
+      <c r="K170" t="str">
+        <v>高松市御厩町771-1</v>
+      </c>
+      <c r="N170" t="str">
+        <v>1</v>
+      </c>
+      <c r="O170" t="str">
+        <v>1</v>
+      </c>
+      <c r="U170" t="str">
+        <v>1</v>
+      </c>
+      <c r="X170" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y170" t="str">
+        <v>有</v>
+      </c>
+      <c r="Z170" t="str">
+        <v>無</v>
+      </c>
+      <c r="AA170" t="str">
+        <v>無</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AG168"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AG170"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/public_toilet/data.xlsx
+++ b/data/public_toilet/data.xlsx
@@ -627,13 +627,13 @@
         <v>高松市</v>
       </c>
       <c r="H3" t="str">
-        <v>Hitz瀬戸の都トイレ（高松市高松駅前広場公衆便所）</v>
+        <v>Kanadevia瀬戸の都トイレ（高松市高松駅前広場公衆便所）</v>
       </c>
       <c r="I3" t="str">
-        <v>ヒッツセトノミヤコトイレ　タカマツシタカマツエキマエヒロバコウシュウベンジョ</v>
+        <v>カナデビアセトノミヤコトイレ　タカマツシタカマツエキマエヒロバコウシュウベンジョ</v>
       </c>
       <c r="J3" t="str">
-        <v>Hitz Public Toilet   Marine Capital of the Seto Inland Sea</v>
+        <v>Kanadevia Public Toilet   Marine Capital of the Seto Inland Sea</v>
       </c>
       <c r="K3" t="str">
         <v>香川県高松市浜ノ町1番19号</v>
@@ -17398,9 +17398,18 @@
       <c r="I169" t="str">
         <v>タルミチュウオウコウエン</v>
       </c>
+      <c r="J169" t="str">
+        <v/>
+      </c>
       <c r="K169" t="str">
         <v>高松市亀水町458-3</v>
       </c>
+      <c r="L169" t="str">
+        <v/>
+      </c>
+      <c r="M169" t="str">
+        <v/>
+      </c>
       <c r="N169" t="str">
         <v>3</v>
       </c>
@@ -17422,6 +17431,15 @@
       <c r="T169" t="str">
         <v>2</v>
       </c>
+      <c r="U169" t="str">
+        <v/>
+      </c>
+      <c r="V169" t="str">
+        <v/>
+      </c>
+      <c r="W169" t="str">
+        <v/>
+      </c>
       <c r="X169" t="str">
         <v>1</v>
       </c>
@@ -17433,6 +17451,24 @@
       </c>
       <c r="AA169" t="str">
         <v>無</v>
+      </c>
+      <c r="AB169" t="str">
+        <v/>
+      </c>
+      <c r="AC169" t="str">
+        <v/>
+      </c>
+      <c r="AD169" t="str">
+        <v/>
+      </c>
+      <c r="AE169" t="str">
+        <v/>
+      </c>
+      <c r="AF169" t="str">
+        <v/>
+      </c>
+      <c r="AG169" t="str">
+        <v/>
       </c>
     </row>
     <row r="170">
@@ -17463,17 +17499,47 @@
       <c r="I170" t="str">
         <v>マユミコウエン</v>
       </c>
+      <c r="J170" t="str">
+        <v/>
+      </c>
       <c r="K170" t="str">
         <v>高松市御厩町771-1</v>
       </c>
+      <c r="L170" t="str">
+        <v/>
+      </c>
+      <c r="M170" t="str">
+        <v/>
+      </c>
       <c r="N170" t="str">
         <v>1</v>
       </c>
       <c r="O170" t="str">
         <v>1</v>
       </c>
+      <c r="P170" t="str">
+        <v/>
+      </c>
+      <c r="Q170" t="str">
+        <v/>
+      </c>
+      <c r="R170" t="str">
+        <v/>
+      </c>
+      <c r="S170" t="str">
+        <v/>
+      </c>
+      <c r="T170" t="str">
+        <v/>
+      </c>
       <c r="U170" t="str">
         <v>1</v>
+      </c>
+      <c r="V170" t="str">
+        <v/>
+      </c>
+      <c r="W170" t="str">
+        <v/>
       </c>
       <c r="X170" t="str">
         <v>1</v>
@@ -17486,6 +17552,24 @@
       </c>
       <c r="AA170" t="str">
         <v>無</v>
+      </c>
+      <c r="AB170" t="str">
+        <v/>
+      </c>
+      <c r="AC170" t="str">
+        <v/>
+      </c>
+      <c r="AD170" t="str">
+        <v/>
+      </c>
+      <c r="AE170" t="str">
+        <v/>
+      </c>
+      <c r="AF170" t="str">
+        <v/>
+      </c>
+      <c r="AG170" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
